--- a/Pull Request Here/NewRatkinPlus - 1578693166/NewRatkinPlus - 1578693166.xlsx
+++ b/Pull Request Here/NewRatkinPlus - 1578693166/NewRatkinPlus - 1578693166.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62D6CB-BA08-4CD3-9B65-482AE61132BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C5D24-FC30-4970-8956-519B0EC83C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17063,10 +17063,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 아이들을 가르치는 교사입니다. 하지만 어린이들이 모두 떠난 시골마을에서 할 수 있는 것은 없기에, [PAWN_pronoun]도 꿈이 있는 새로운 터전을 찾기 위해 떠나야 했습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[PAWN_nameDef](은)는 전쟁터 속에서 랫킨을 살리는 의사였습니다. [PAWN_pronoun]는 소모품으로 여겨지는 생명이라도 동족이라는 사명감으로 자원하였지만, 결국 바뀌는 것이 없다는 사실에 떠났습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -17080,6 +17076,10 @@
   </si>
   <si>
     <t>[PAWN_nameDef](은)는 부유한 집안에서 태어났습니다. [PAWN_pronoun]는 다양한 미술품 사이에서 금지옥엽으로 자랐기 때문에 할 줄 아는 것은 그리 많지 않습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 아이들을 가르치는 교사입니다. 하지만 어린이들이 모두 떠난 시골마을에서 할 수 있는 것은 없기에, [PAWN_pronoun]는 꿈이 있는 새로운 터전을 찾기 위해 떠나야 했습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -17986,7 +17986,7 @@
         <v>3471</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5248</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -19448,7 +19448,7 @@
         <v>3552</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5244</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -19958,7 +19958,7 @@
         <v>5211</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5245</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -20060,7 +20060,7 @@
         <v>5212</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>5246</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -26024,7 +26024,7 @@
         <v>3890</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>5247</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
